--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_martin_tue_nl/Documents/Transportation Teaching/1CM110/2023/Block 1/Shared Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Henriquez\Documents\GitHub\Assignment-1-Decision-Making-in-Transport-and-Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4DB114E441178AC67DF4DEAE53CB7E683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B1CFC8-C34E-4296-B0B1-656F1A3E7CD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0141B173-51B6-4288-A224-132872477F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -92,56 +92,56 @@
     <t>52° 9' 36.4104'' N</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>5°29′23″E</t>
-  </si>
-  <si>
-    <t>51°26′53″N</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
     <t>6°33'27.59" E</t>
   </si>
   <si>
     <t xml:space="preserve">53°13'5.40" N </t>
   </si>
   <si>
-    <t>W3</t>
-  </si>
-  <si>
     <t>4°31'19.79" E</t>
   </si>
   <si>
     <t>51°55'2.99" N</t>
   </si>
   <si>
-    <t>W4</t>
-  </si>
-  <si>
     <t>5°41'7.19" E</t>
   </si>
   <si>
     <t>50°50'29.72" N</t>
   </si>
   <si>
-    <t>W5</t>
-  </si>
-  <si>
     <t>4°22'12.59" E</t>
   </si>
   <si>
     <t>52°00'3.60" N</t>
+  </si>
+  <si>
+    <t>5°29'23"E</t>
+  </si>
+  <si>
+    <t>51°26'53"N</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,16 +496,16 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -532,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -543,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -554,7 +560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -565,67 +571,68 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>